--- a/result/result_bfs.xlsx
+++ b/result/result_bfs.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="18431" windowHeight="9215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -19,10 +19,10 @@
     <t>level</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>memory</t>
+    <t>time(s)</t>
+  </si>
+  <si>
+    <t>memory(mb)</t>
   </si>
   <si>
     <t>steps</t>
@@ -134,12 +134,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,19 +153,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -182,9 +525,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -192,11 +777,63 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -479,17 +1116,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -513,7 +1152,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.006033897399902344</v>
+        <v>0.00603389739990234</v>
       </c>
       <c r="C2">
         <v>0.12890625</v>
@@ -530,7 +1169,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.04781174659729004</v>
+        <v>0.04781174659729</v>
       </c>
       <c r="C3">
         <v>0.4921875</v>
@@ -547,7 +1186,7 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.01206231117248535</v>
+        <v>0.0120623111724853</v>
       </c>
       <c r="C4">
         <v>0.1796875</v>
@@ -564,7 +1203,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.01059174537658691</v>
+        <v>0.0105917453765869</v>
       </c>
       <c r="C5">
         <v>0.16796875</v>
@@ -581,7 +1220,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.07747054100036621</v>
+        <v>0.0774705410003662</v>
       </c>
       <c r="C6">
         <v>0.796875</v>
@@ -598,7 +1237,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.02111291885375977</v>
+        <v>0.0211129188537598</v>
       </c>
       <c r="C7">
         <v>0.28125</v>
@@ -615,7 +1254,7 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.03135967254638672</v>
+        <v>0.0313596725463867</v>
       </c>
       <c r="C8">
         <v>0.37890625</v>
@@ -632,7 +1271,7 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.6573038101196289</v>
+        <v>0.657303810119629</v>
       </c>
       <c r="C9">
         <v>1.44921875</v>
@@ -666,7 +1305,7 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>7.785917520523071</v>
+        <v>7.78591752052307</v>
       </c>
       <c r="C11">
         <v>4.41015625</v>
@@ -683,7 +1322,7 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.03257083892822266</v>
+        <v>0.0325708389282227</v>
       </c>
       <c r="C12">
         <v>0.4609375</v>
@@ -700,7 +1339,7 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.06723117828369141</v>
+        <v>0.0672311782836914</v>
       </c>
       <c r="C13">
         <v>0.80859375</v>
@@ -717,7 +1356,7 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02715420722961426</v>
+        <v>0.0271542072296143</v>
       </c>
       <c r="C14">
         <v>0.4140625</v>
@@ -734,7 +1373,7 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.1130590438842773</v>
+        <v>0.113059043884277</v>
       </c>
       <c r="C15">
         <v>1.12109375</v>
@@ -751,7 +1390,7 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>5.576183319091797</v>
+        <v>5.5761833190918</v>
       </c>
       <c r="C16">
         <v>4.15234375</v>
@@ -768,7 +1407,7 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>0.03796243667602539</v>
+        <v>0.0379624366760254</v>
       </c>
       <c r="C17">
         <v>0.35546875</v>
@@ -785,7 +1424,7 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0.4043054580688477</v>
+        <v>0.404305458068848</v>
       </c>
       <c r="C18">
         <v>2.45703125</v>
@@ -819,7 +1458,7 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.04697418212890625</v>
+        <v>0.0469741821289063</v>
       </c>
       <c r="C20">
         <v>0.55859375</v>
@@ -836,7 +1475,7 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>10.58794689178467</v>
+        <v>10.5879468917847</v>
       </c>
       <c r="C21">
         <v>4.43359375</v>
@@ -853,7 +1492,7 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.05201292037963867</v>
+        <v>0.0520129203796387</v>
       </c>
       <c r="C22">
         <v>0.58984375</v>
@@ -870,7 +1509,7 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.07877039909362793</v>
+        <v>0.0787703990936279</v>
       </c>
       <c r="C23">
         <v>0.8359375</v>
@@ -887,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>10.65712285041809</v>
+        <v>10.6571228504181</v>
       </c>
       <c r="C24">
         <v>5.23828125</v>
@@ -904,7 +1543,7 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.1179354190826416</v>
+        <v>0.117935419082642</v>
       </c>
       <c r="C25">
         <v>1.0703125</v>
@@ -921,7 +1560,7 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.1197168827056885</v>
+        <v>0.119716882705689</v>
       </c>
       <c r="C26">
         <v>1.17578125</v>
@@ -938,7 +1577,7 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>21.30785131454468</v>
+        <v>21.3078513145447</v>
       </c>
       <c r="C27">
         <v>4.51953125</v>
@@ -955,7 +1594,7 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.07881450653076172</v>
+        <v>0.0788145065307617</v>
       </c>
       <c r="C28">
         <v>0.77734375</v>
@@ -972,7 +1611,7 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>13.26029467582703</v>
+        <v>13.260294675827</v>
       </c>
       <c r="C29">
         <v>3.85546875</v>
@@ -1006,7 +1645,7 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.1548135280609131</v>
+        <v>0.154813528060913</v>
       </c>
       <c r="C31">
         <v>1.37109375</v>
@@ -1023,7 +1662,7 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.2859816551208496</v>
+        <v>0.28598165512085</v>
       </c>
       <c r="C32">
         <v>2.265625</v>
@@ -1040,7 +1679,7 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.1547253131866455</v>
+        <v>0.154725313186646</v>
       </c>
       <c r="C33">
         <v>1.48046875</v>
@@ -1057,7 +1696,7 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.2834277153015137</v>
+        <v>0.283427715301514</v>
       </c>
       <c r="C34">
         <v>1.80859375</v>
@@ -1071,5 +1710,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>